--- a/mbs-perturbation/greedy/welm/greedy_welm_rbf_results.xlsx
+++ b/mbs-perturbation/greedy/welm/greedy_welm_rbf_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9774011299435028</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7543290043290043</v>
+        <v>0.568099710982659</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.963276836158192</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7205240174672489</v>
+        <v>0.5081209113467178</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9957081545064378</v>
+        <v>0.9971751412429378</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,60 +508,26 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5325779036827196</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9956896551724138</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9913793103448276</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.4282608695652174</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.9914052094124612</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.6512303316384682</v>
+      <c r="B5" t="n">
+        <v>0.9792843691148776</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5362661753373654</v>
       </c>
     </row>
   </sheetData>
